--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ucn2-Crhr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ucn2-Crhr2.xlsx
@@ -537,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.625762</v>
+        <v>0.4953129999999999</v>
       </c>
       <c r="H2">
-        <v>1.877286</v>
+        <v>1.485939</v>
       </c>
       <c r="I2">
-        <v>0.2445152653530761</v>
+        <v>0.2134181161789063</v>
       </c>
       <c r="J2">
-        <v>0.244515265353076</v>
+        <v>0.2134181161789063</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.357893</v>
+        <v>0.345785</v>
       </c>
       <c r="N2">
-        <v>1.073679</v>
+        <v>1.037355</v>
       </c>
       <c r="O2">
-        <v>0.2341304653589384</v>
+        <v>0.1901295499320662</v>
       </c>
       <c r="P2">
-        <v>0.2341304653589384</v>
+        <v>0.1901295499320662</v>
       </c>
       <c r="Q2">
-        <v>0.223955839466</v>
+        <v>0.171271805705</v>
       </c>
       <c r="R2">
-        <v>2.015602555194</v>
+        <v>1.541446251345</v>
       </c>
       <c r="S2">
-        <v>0.05724847286448</v>
+        <v>0.04057709037644486</v>
       </c>
       <c r="T2">
-        <v>0.05724847286448</v>
+        <v>0.04057709037644486</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.625762</v>
+        <v>0.4953129999999999</v>
       </c>
       <c r="H3">
-        <v>1.877286</v>
+        <v>1.485939</v>
       </c>
       <c r="I3">
-        <v>0.2445152653530761</v>
+        <v>0.2134181161789063</v>
       </c>
       <c r="J3">
-        <v>0.244515265353076</v>
+        <v>0.2134181161789063</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.229851</v>
       </c>
       <c r="O3">
-        <v>0.05012217021401866</v>
+        <v>0.04212778381695306</v>
       </c>
       <c r="P3">
-        <v>0.05012217021401866</v>
+        <v>0.04212778381695306</v>
       </c>
       <c r="Q3">
-        <v>0.047944007154</v>
+        <v>0.037949396121</v>
       </c>
       <c r="R3">
-        <v>0.4314960643860001</v>
+        <v>0.341544565089</v>
       </c>
       <c r="S3">
-        <v>0.01225563574995282</v>
+        <v>0.008990832261006337</v>
       </c>
       <c r="T3">
-        <v>0.01225563574995282</v>
+        <v>0.008990832261006337</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.625762</v>
+        <v>0.4953129999999999</v>
       </c>
       <c r="H4">
-        <v>1.877286</v>
+        <v>1.485939</v>
       </c>
       <c r="I4">
-        <v>0.2445152653530761</v>
+        <v>0.2134181161789063</v>
       </c>
       <c r="J4">
-        <v>0.244515265353076</v>
+        <v>0.2134181161789063</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.094095</v>
+        <v>1.396279</v>
       </c>
       <c r="N4">
-        <v>3.282285</v>
+        <v>4.188836999999999</v>
       </c>
       <c r="O4">
-        <v>0.715747364427043</v>
+        <v>0.7677426662509808</v>
       </c>
       <c r="P4">
-        <v>0.715747364427043</v>
+        <v>0.7677426662509808</v>
       </c>
       <c r="Q4">
-        <v>0.68464307539</v>
+        <v>0.6915951403269999</v>
       </c>
       <c r="R4">
-        <v>6.161787678510001</v>
+        <v>6.224356262942999</v>
       </c>
       <c r="S4">
-        <v>0.1750111567386433</v>
+        <v>0.1638501935414551</v>
       </c>
       <c r="T4">
-        <v>0.1750111567386432</v>
+        <v>0.1638501935414551</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>2.700771</v>
       </c>
       <c r="I5">
-        <v>0.351773644358341</v>
+        <v>0.3878984662564351</v>
       </c>
       <c r="J5">
-        <v>0.351773644358341</v>
+        <v>0.3878984662564351</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.357893</v>
+        <v>0.345785</v>
       </c>
       <c r="N5">
-        <v>1.073679</v>
+        <v>1.037355</v>
       </c>
       <c r="O5">
-        <v>0.2341304653589384</v>
+        <v>0.1901295499320662</v>
       </c>
       <c r="P5">
-        <v>0.2341304653589384</v>
+        <v>0.1901295499320662</v>
       </c>
       <c r="Q5">
-        <v>0.322195678501</v>
+        <v>0.311295366745</v>
       </c>
       <c r="R5">
-        <v>2.899761106509</v>
+        <v>2.801658300705</v>
       </c>
       <c r="S5">
-        <v>0.08236092705462807</v>
+        <v>0.07375096080867477</v>
       </c>
       <c r="T5">
-        <v>0.08236092705462807</v>
+        <v>0.07375096080867477</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>2.700771</v>
       </c>
       <c r="I6">
-        <v>0.351773644358341</v>
+        <v>0.3878984662564351</v>
       </c>
       <c r="J6">
-        <v>0.351773644358341</v>
+        <v>0.3878984662564351</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,22 +809,22 @@
         <v>0.229851</v>
       </c>
       <c r="O6">
-        <v>0.05012217021401866</v>
+        <v>0.04212778381695306</v>
       </c>
       <c r="P6">
-        <v>0.05012217021401866</v>
+        <v>0.04212778381695306</v>
       </c>
       <c r="Q6">
         <v>0.068974990569</v>
       </c>
       <c r="R6">
-        <v>0.6207749151210001</v>
+        <v>0.620774915121</v>
       </c>
       <c r="S6">
-        <v>0.01763165847933443</v>
+        <v>0.01634130272937876</v>
       </c>
       <c r="T6">
-        <v>0.01763165847933443</v>
+        <v>0.01634130272937876</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2.700771</v>
       </c>
       <c r="I7">
-        <v>0.351773644358341</v>
+        <v>0.3878984662564351</v>
       </c>
       <c r="J7">
-        <v>0.351773644358341</v>
+        <v>0.3878984662564351</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.094095</v>
+        <v>1.396279</v>
       </c>
       <c r="N7">
-        <v>3.282285</v>
+        <v>4.188836999999999</v>
       </c>
       <c r="O7">
-        <v>0.715747364427043</v>
+        <v>0.7677426662509808</v>
       </c>
       <c r="P7">
-        <v>0.715747364427043</v>
+        <v>0.7677426662509808</v>
       </c>
       <c r="Q7">
-        <v>0.984966682415</v>
+        <v>1.257009943703</v>
       </c>
       <c r="R7">
-        <v>8.864700141735002</v>
+        <v>11.313089493327</v>
       </c>
       <c r="S7">
-        <v>0.2517810588243785</v>
+        <v>0.2978062027183815</v>
       </c>
       <c r="T7">
-        <v>0.2517810588243785</v>
+        <v>0.2978062027183816</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7833383333333334</v>
+        <v>0.8083133333333334</v>
       </c>
       <c r="H8">
-        <v>2.350015</v>
+        <v>2.42494</v>
       </c>
       <c r="I8">
-        <v>0.3060879063225896</v>
+        <v>0.3482822152503414</v>
       </c>
       <c r="J8">
-        <v>0.3060879063225896</v>
+        <v>0.3482822152503415</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.357893</v>
+        <v>0.345785</v>
       </c>
       <c r="N8">
-        <v>1.073679</v>
+        <v>1.037355</v>
       </c>
       <c r="O8">
-        <v>0.2341304653589384</v>
+        <v>0.1901295499320662</v>
       </c>
       <c r="P8">
-        <v>0.2341304653589384</v>
+        <v>0.1901295499320662</v>
       </c>
       <c r="Q8">
-        <v>0.2803513061316667</v>
+        <v>0.2795026259666667</v>
       </c>
       <c r="R8">
-        <v>2.523161755185</v>
+        <v>2.5155236337</v>
       </c>
       <c r="S8">
-        <v>0.07166450394805106</v>
+        <v>0.0662187408348904</v>
       </c>
       <c r="T8">
-        <v>0.07166450394805104</v>
+        <v>0.06621874083489042</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7833383333333334</v>
+        <v>0.8083133333333334</v>
       </c>
       <c r="H9">
-        <v>2.350015</v>
+        <v>2.42494</v>
       </c>
       <c r="I9">
-        <v>0.3060879063225896</v>
+        <v>0.3482822152503414</v>
       </c>
       <c r="J9">
-        <v>0.3060879063225896</v>
+        <v>0.3482822152503415</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,22 +995,22 @@
         <v>0.229851</v>
       </c>
       <c r="O9">
-        <v>0.05012217021401866</v>
+        <v>0.04212778381695306</v>
       </c>
       <c r="P9">
-        <v>0.05012217021401866</v>
+        <v>0.04212778381695306</v>
       </c>
       <c r="Q9">
-        <v>0.060017033085</v>
+        <v>0.06193054266000001</v>
       </c>
       <c r="R9">
-        <v>0.5401532977650001</v>
+        <v>0.5573748839400001</v>
       </c>
       <c r="S9">
-        <v>0.01534179014115344</v>
+        <v>0.0146723578713559</v>
       </c>
       <c r="T9">
-        <v>0.01534179014115344</v>
+        <v>0.0146723578713559</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7833383333333334</v>
+        <v>0.8083133333333334</v>
       </c>
       <c r="H10">
-        <v>2.350015</v>
+        <v>2.42494</v>
       </c>
       <c r="I10">
-        <v>0.3060879063225896</v>
+        <v>0.3482822152503414</v>
       </c>
       <c r="J10">
-        <v>0.3060879063225896</v>
+        <v>0.3482822152503415</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.094095</v>
+        <v>1.396279</v>
       </c>
       <c r="N10">
-        <v>3.282285</v>
+        <v>4.188836999999999</v>
       </c>
       <c r="O10">
-        <v>0.715747364427043</v>
+        <v>0.7677426662509808</v>
       </c>
       <c r="P10">
-        <v>0.715747364427043</v>
+        <v>0.7677426662509808</v>
       </c>
       <c r="Q10">
-        <v>0.8570465538083334</v>
+        <v>1.128630932753333</v>
       </c>
       <c r="R10">
-        <v>7.713418984275001</v>
+        <v>10.15767839478</v>
       </c>
       <c r="S10">
-        <v>0.2190816122333852</v>
+        <v>0.2673911165440951</v>
       </c>
       <c r="T10">
-        <v>0.2190816122333851</v>
+        <v>0.2673911165440951</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2498366666666667</v>
+        <v>0.116974</v>
       </c>
       <c r="H11">
-        <v>0.74951</v>
+        <v>0.350922</v>
       </c>
       <c r="I11">
-        <v>0.09762318396599347</v>
+        <v>0.05040120231431718</v>
       </c>
       <c r="J11">
-        <v>0.09762318396599345</v>
+        <v>0.05040120231431718</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.357893</v>
+        <v>0.345785</v>
       </c>
       <c r="N11">
-        <v>1.073679</v>
+        <v>1.037355</v>
       </c>
       <c r="O11">
-        <v>0.2341304653589384</v>
+        <v>0.1901295499320662</v>
       </c>
       <c r="P11">
-        <v>0.2341304653589384</v>
+        <v>0.1901295499320662</v>
       </c>
       <c r="Q11">
-        <v>0.08941479414333334</v>
+        <v>0.04044785459000001</v>
       </c>
       <c r="R11">
-        <v>0.80473314729</v>
+        <v>0.36403069131</v>
       </c>
       <c r="S11">
-        <v>0.0228565614917793</v>
+        <v>0.009582757912056138</v>
       </c>
       <c r="T11">
-        <v>0.0228565614917793</v>
+        <v>0.009582757912056138</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2498366666666667</v>
+        <v>0.116974</v>
       </c>
       <c r="H12">
-        <v>0.74951</v>
+        <v>0.350922</v>
       </c>
       <c r="I12">
-        <v>0.09762318396599347</v>
+        <v>0.05040120231431718</v>
       </c>
       <c r="J12">
-        <v>0.09762318396599345</v>
+        <v>0.05040120231431718</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,22 +1181,22 @@
         <v>0.229851</v>
       </c>
       <c r="O12">
-        <v>0.05012217021401866</v>
+        <v>0.04212778381695306</v>
       </c>
       <c r="P12">
-        <v>0.05012217021401866</v>
+        <v>0.04212778381695306</v>
       </c>
       <c r="Q12">
-        <v>0.01914173589</v>
+        <v>0.008962196958000001</v>
       </c>
       <c r="R12">
-        <v>0.17227562301</v>
+        <v>0.080659772622</v>
       </c>
       <c r="S12">
-        <v>0.004893085843577982</v>
+        <v>0.002123290955212069</v>
       </c>
       <c r="T12">
-        <v>0.004893085843577982</v>
+        <v>0.002123290955212069</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2498366666666667</v>
+        <v>0.116974</v>
       </c>
       <c r="H13">
-        <v>0.74951</v>
+        <v>0.350922</v>
       </c>
       <c r="I13">
-        <v>0.09762318396599347</v>
+        <v>0.05040120231431718</v>
       </c>
       <c r="J13">
-        <v>0.09762318396599345</v>
+        <v>0.05040120231431718</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.094095</v>
+        <v>1.396279</v>
       </c>
       <c r="N13">
-        <v>3.282285</v>
+        <v>4.188836999999999</v>
       </c>
       <c r="O13">
-        <v>0.715747364427043</v>
+        <v>0.7677426662509808</v>
       </c>
       <c r="P13">
-        <v>0.715747364427043</v>
+        <v>0.7677426662509808</v>
       </c>
       <c r="Q13">
-        <v>0.2733450478166667</v>
+        <v>0.163328339746</v>
       </c>
       <c r="R13">
-        <v>2.46010543035</v>
+        <v>1.469955057714</v>
       </c>
       <c r="S13">
-        <v>0.06987353663063618</v>
+        <v>0.03869515344704898</v>
       </c>
       <c r="T13">
-        <v>0.06987353663063618</v>
+        <v>0.03869515344704898</v>
       </c>
     </row>
   </sheetData>
